--- a/data/GreatLink/GreatLink US Income and Growth Fund Dis.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund Dis.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid56510"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid554401"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink US Income and Growth Fund Dis.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund Dis.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid554401"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid785199"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,126 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>13/05/2024</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>09/05/2024</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>08/05/2024</t>
+  </si>
+  <si>
+    <t>07/05/2024</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>06/05/2024</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>02/05/2024</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>30/04/2024</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>29/04/2024</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>25/04/2024</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>24/04/2024</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>23/04/2024</t>
+  </si>
+  <si>
+    <t>22/04/2024</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>18/04/2024</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>17/04/2024</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>16/04/2024</t>
+  </si>
+  <si>
+    <t>15/04/2024</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
     <t>12/04/2024</t>
   </si>
   <si>
     <t>0.995</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>11/04/2024</t>
   </si>
   <si>
@@ -110,9 +221,6 @@
     <t>19/03/2024</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
     <t>18/03/2024</t>
   </si>
   <si>
@@ -182,9 +290,6 @@
     <t>22/02/2024</t>
   </si>
   <si>
-    <t>0.991</t>
-  </si>
-  <si>
     <t>21/02/2024</t>
   </si>
   <si>
@@ -224,15 +329,9 @@
     <t>07/02/2024</t>
   </si>
   <si>
-    <t>0.992</t>
-  </si>
-  <si>
     <t>06/02/2024</t>
   </si>
   <si>
-    <t>0.989</t>
-  </si>
-  <si>
     <t>05/02/2024</t>
   </si>
   <si>
@@ -245,18 +344,12 @@
     <t>31/01/2024</t>
   </si>
   <si>
-    <t>0.988</t>
-  </si>
-  <si>
     <t>30/01/2024</t>
   </si>
   <si>
     <t>29/01/2024</t>
   </si>
   <si>
-    <t>0.987</t>
-  </si>
-  <si>
     <t>26/01/2024</t>
   </si>
   <si>
@@ -272,9 +365,6 @@
     <t>23/01/2024</t>
   </si>
   <si>
-    <t>0.983</t>
-  </si>
-  <si>
     <t>22/01/2024</t>
   </si>
   <si>
@@ -293,15 +383,9 @@
     <t>17/01/2024</t>
   </si>
   <si>
-    <t>0.971</t>
-  </si>
-  <si>
     <t>16/01/2024</t>
   </si>
   <si>
-    <t>0.982</t>
-  </si>
-  <si>
     <t>15/01/2024</t>
   </si>
   <si>
@@ -323,24 +407,15 @@
     <t>08/01/2024</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>05/01/2024</t>
   </si>
   <si>
-    <t>0.974</t>
-  </si>
-  <si>
     <t>04/01/2024</t>
   </si>
   <si>
     <t>03/01/2024</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>02/01/2024</t>
   </si>
   <si>
@@ -389,9 +464,6 @@
     <t>11/12/2023</t>
   </si>
   <si>
-    <t>0.967</t>
-  </si>
-  <si>
     <t>08/12/2023</t>
   </si>
   <si>
@@ -707,9 +779,6 @@
     <t>06/09/2023</t>
   </si>
   <si>
-    <t>0.972</t>
-  </si>
-  <si>
     <t>05/09/2023</t>
   </si>
   <si>
@@ -782,9 +851,6 @@
     <t>07/08/2023</t>
   </si>
   <si>
-    <t>0.979</t>
-  </si>
-  <si>
     <t>04/08/2023</t>
   </si>
   <si>
@@ -854,9 +920,6 @@
     <t>05/07/2023</t>
   </si>
   <si>
-    <t>0.981</t>
-  </si>
-  <si>
     <t>04/07/2023</t>
   </si>
   <si>
@@ -873,9 +936,6 @@
   </si>
   <si>
     <t>26/06/2023</t>
-  </si>
-  <si>
-    <t>0.970</t>
   </si>
   <si>
     <t>23/06/2023</t>
@@ -1379,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1387,10 +1447,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1398,10 +1458,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1409,10 +1469,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1423,7 +1483,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1431,10 +1491,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1442,10 +1502,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1453,10 +1513,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1464,10 +1524,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1475,10 +1535,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1486,10 +1546,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1497,10 +1557,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1508,10 +1568,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1519,10 +1579,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1530,10 +1590,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1541,10 +1601,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1552,10 +1612,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1563,10 +1623,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1574,10 +1634,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1585,10 +1645,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1596,10 +1656,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1607,10 +1667,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1618,10 +1678,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1629,10 +1689,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1640,10 +1700,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1651,10 +1711,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1662,10 +1722,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1673,10 +1733,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1684,10 +1744,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1695,10 +1755,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
         <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1706,10 +1766,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1717,10 +1777,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1728,10 +1788,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1739,10 +1799,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1750,10 +1810,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1761,10 +1821,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1772,10 +1832,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1783,10 +1843,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1794,10 +1854,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1805,10 +1865,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1816,10 +1876,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1827,10 +1887,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1838,10 +1898,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1849,10 +1909,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1860,10 +1920,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1871,10 +1931,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1882,10 +1942,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1893,10 +1953,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1904,10 +1964,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1915,10 +1975,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1926,10 +1986,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1937,10 +1997,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1948,10 +2008,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1959,10 +2019,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1970,10 +2030,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1981,10 +2041,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1992,10 +2052,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2003,10 +2063,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2014,10 +2074,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2025,10 +2085,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2036,10 +2096,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2047,10 +2107,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2058,10 +2118,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2069,10 +2129,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2080,10 +2140,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2091,10 +2151,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2102,10 +2162,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2113,10 +2173,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2124,10 +2184,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2135,10 +2195,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2146,10 +2206,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2157,10 +2217,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2168,10 +2228,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2179,10 +2239,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2190,10 +2250,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2201,10 +2261,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2212,10 +2272,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2223,10 +2283,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2234,10 +2294,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2245,10 +2305,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2256,10 +2316,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2267,10 +2327,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2278,10 +2338,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2289,10 +2349,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2300,10 +2360,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2314,7 +2374,7 @@
         <v>131</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2322,10 +2382,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2333,10 +2393,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B92" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2344,10 +2404,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2355,10 +2415,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2366,10 +2426,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2377,10 +2437,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2388,10 +2448,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2399,10 +2459,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2410,10 +2470,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2421,10 +2481,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2432,10 +2492,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2443,10 +2503,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2454,10 +2514,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2465,10 +2525,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2476,7 +2536,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B105" t="s">
         <v>147</v>
@@ -2487,10 +2547,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2498,10 +2558,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2509,10 +2569,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2520,10 +2580,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2531,10 +2591,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B110" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2542,10 +2602,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2553,10 +2613,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B112" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2564,10 +2624,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B113" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2575,10 +2635,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B114" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2586,10 +2646,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2597,10 +2657,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2608,10 +2668,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2619,10 +2679,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2630,10 +2690,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2641,10 +2701,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B120" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2652,10 +2712,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B121" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2663,10 +2723,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2674,10 +2734,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B123" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2685,10 +2745,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B124" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2696,10 +2756,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2707,10 +2767,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2718,10 +2778,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2729,10 +2789,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2740,10 +2800,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2751,10 +2811,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2762,10 +2822,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B131" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2773,10 +2833,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2784,10 +2844,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2795,10 +2855,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2806,10 +2866,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B135" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2817,10 +2877,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B136" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2828,10 +2888,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B137" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2839,10 +2899,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2850,10 +2910,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2861,10 +2921,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B140" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2872,10 +2932,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B141" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2883,10 +2943,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2894,10 +2954,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2905,10 +2965,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2916,10 +2976,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B145" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2927,10 +2987,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B146" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2938,10 +2998,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2949,10 +3009,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2960,10 +3020,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B149" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2971,10 +3031,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B150" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2982,10 +3042,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B151" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2993,10 +3053,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B152" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3004,10 +3064,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B153" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3015,10 +3075,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B154" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3026,10 +3086,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B155" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3037,10 +3097,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B156" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3048,10 +3108,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B157" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3059,10 +3119,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B158" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3070,10 +3130,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B159" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3081,10 +3141,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B160" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3092,10 +3152,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B161" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3103,10 +3163,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B162" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3114,10 +3174,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B163" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3125,10 +3185,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B164" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3136,10 +3196,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B165" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3147,10 +3207,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B166" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3158,10 +3218,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B167" t="s">
-        <v>92</v>
+        <v>245</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3169,10 +3229,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B168" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3180,10 +3240,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B169" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3191,10 +3251,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B170" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3202,10 +3262,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B171" t="s">
-        <v>85</v>
+        <v>251</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3213,10 +3273,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B172" t="s">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3224,10 +3284,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B173" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3235,10 +3295,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B174" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3246,10 +3306,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B175" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3257,10 +3317,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B176" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3268,10 +3328,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3279,10 +3339,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B178" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3290,10 +3350,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>260</v>
+      </c>
+      <c r="B179" t="s">
         <v>261</v>
-      </c>
-      <c r="B179" t="s">
-        <v>31</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3304,7 +3364,7 @@
         <v>262</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3312,10 +3372,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B181" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3323,10 +3383,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B182" t="s">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3334,10 +3394,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B183" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3345,10 +3405,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B184" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3356,10 +3416,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B185" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3367,10 +3427,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3378,10 +3438,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B187" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3389,10 +3449,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B188" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3400,10 +3460,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B189" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3411,10 +3471,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B190" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3422,10 +3482,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B191" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3433,10 +3493,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B192" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3444,10 +3504,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B193" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3455,10 +3515,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B194" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3466,10 +3526,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B195" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3477,10 +3537,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B196" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3488,10 +3548,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B197" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3499,10 +3559,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B198" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3510,10 +3570,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B199" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3521,10 +3581,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B200" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3532,10 +3592,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B201" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3543,10 +3603,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3557,7 +3617,7 @@
         <v>287</v>
       </c>
       <c r="B203" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3568,7 +3628,7 @@
         <v>288</v>
       </c>
       <c r="B204" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3579,7 +3639,7 @@
         <v>289</v>
       </c>
       <c r="B205" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3590,7 +3650,7 @@
         <v>290</v>
       </c>
       <c r="B206" t="s">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3601,7 +3661,7 @@
         <v>291</v>
       </c>
       <c r="B207" t="s">
-        <v>279</v>
+        <v>66</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3612,7 +3672,7 @@
         <v>292</v>
       </c>
       <c r="B208" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3623,7 +3683,7 @@
         <v>293</v>
       </c>
       <c r="B209" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3634,7 +3694,7 @@
         <v>294</v>
       </c>
       <c r="B210" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3645,7 +3705,7 @@
         <v>295</v>
       </c>
       <c r="B211" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3656,7 +3716,7 @@
         <v>296</v>
       </c>
       <c r="B212" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3667,7 +3727,7 @@
         <v>297</v>
       </c>
       <c r="B213" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3678,7 +3738,7 @@
         <v>298</v>
       </c>
       <c r="B214" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3689,7 +3749,7 @@
         <v>299</v>
       </c>
       <c r="B215" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3700,7 +3760,7 @@
         <v>300</v>
       </c>
       <c r="B216" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3711,7 +3771,7 @@
         <v>301</v>
       </c>
       <c r="B217" t="s">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3722,7 +3782,7 @@
         <v>302</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3733,7 +3793,7 @@
         <v>303</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3744,7 +3804,7 @@
         <v>304</v>
       </c>
       <c r="B220" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3755,7 +3815,7 @@
         <v>305</v>
       </c>
       <c r="B221" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3766,7 +3826,7 @@
         <v>306</v>
       </c>
       <c r="B222" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3777,7 +3837,7 @@
         <v>307</v>
       </c>
       <c r="B223" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3788,7 +3848,7 @@
         <v>308</v>
       </c>
       <c r="B224" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3799,7 +3859,7 @@
         <v>309</v>
       </c>
       <c r="B225" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3810,7 +3870,7 @@
         <v>310</v>
       </c>
       <c r="B226" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3821,7 +3881,7 @@
         <v>311</v>
       </c>
       <c r="B227" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3832,7 +3892,7 @@
         <v>312</v>
       </c>
       <c r="B228" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3843,7 +3903,7 @@
         <v>313</v>
       </c>
       <c r="B229" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3854,7 +3914,7 @@
         <v>314</v>
       </c>
       <c r="B230" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3865,7 +3925,7 @@
         <v>315</v>
       </c>
       <c r="B231" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -3876,7 +3936,7 @@
         <v>316</v>
       </c>
       <c r="B232" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -3887,7 +3947,7 @@
         <v>317</v>
       </c>
       <c r="B233" t="s">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -3895,10 +3955,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B234" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -3906,10 +3966,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B235" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -3917,10 +3977,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B236" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -3928,10 +3988,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B237" t="s">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -3939,10 +3999,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B238" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -3950,10 +4010,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B239" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -3961,10 +4021,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B240" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -3972,12 +4032,232 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
+        <v>325</v>
+      </c>
+      <c r="B241" t="s">
+        <v>166</v>
+      </c>
+      <c r="C241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>326</v>
+      </c>
+      <c r="B242" t="s">
+        <v>166</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>327</v>
+      </c>
+      <c r="B243" t="s">
+        <v>171</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
         <v>328</v>
       </c>
-      <c r="B241" t="s">
-        <v>147</v>
-      </c>
-      <c r="C241" t="s">
+      <c r="B244" t="s">
+        <v>173</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>329</v>
+      </c>
+      <c r="B245" t="s">
+        <v>242</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>330</v>
+      </c>
+      <c r="B246" t="s">
+        <v>242</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>331</v>
+      </c>
+      <c r="B247" t="s">
+        <v>263</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>332</v>
+      </c>
+      <c r="B248" t="s">
+        <v>175</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>333</v>
+      </c>
+      <c r="B249" t="s">
+        <v>175</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>334</v>
+      </c>
+      <c r="B250" t="s">
+        <v>178</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>335</v>
+      </c>
+      <c r="B251" t="s">
+        <v>178</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>336</v>
+      </c>
+      <c r="B252" t="s">
+        <v>242</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>337</v>
+      </c>
+      <c r="B253" t="s">
+        <v>338</v>
+      </c>
+      <c r="C253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>339</v>
+      </c>
+      <c r="B254" t="s">
+        <v>242</v>
+      </c>
+      <c r="C254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>340</v>
+      </c>
+      <c r="B255" t="s">
+        <v>178</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>341</v>
+      </c>
+      <c r="B256" t="s">
+        <v>178</v>
+      </c>
+      <c r="C256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>342</v>
+      </c>
+      <c r="B257" t="s">
+        <v>343</v>
+      </c>
+      <c r="C257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>344</v>
+      </c>
+      <c r="B258" t="s">
+        <v>173</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>345</v>
+      </c>
+      <c r="B259" t="s">
+        <v>173</v>
+      </c>
+      <c r="C259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>346</v>
+      </c>
+      <c r="B260" t="s">
+        <v>347</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>348</v>
+      </c>
+      <c r="B261" t="s">
+        <v>171</v>
+      </c>
+      <c r="C261" t="s">
         <v>5</v>
       </c>
     </row>
